--- a/geral/Propostas/Cronograma.xlsx
+++ b/geral/Propostas/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnero\Documents\GitHub\DocGP\geral\Propostas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52C368-CF8F-4449-8B51-87DBEB5E301C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3463AC81-BAF7-4874-81CD-099EE2414BD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C78A2EC2-E751-4273-96AA-B43BEF95AE68}"/>
   </bookViews>
@@ -33,18 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>Março</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -70,6 +58,18 @@
   </si>
   <si>
     <t>Notificações</t>
+  </si>
+  <si>
+    <t>Mês 1</t>
+  </si>
+  <si>
+    <t>Mês 2</t>
+  </si>
+  <si>
+    <t>Mês 3</t>
+  </si>
+  <si>
+    <t>Mês 4</t>
   </si>
 </sst>
 </file>
@@ -141,10 +141,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +463,7 @@
   <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,22 +473,22 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -496,8 +496,8 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>5</v>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -505,8 +505,8 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>6</v>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -514,43 +514,43 @@
       <c r="F6" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
